--- a/Parts spreadsheet.xlsx
+++ b/Parts spreadsheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,18 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,14 +101,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,7 +393,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +432,7 @@
         <f>C2*B2</f>
         <v>159.80000000000001</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -430,16 +441,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>7.99</v>
       </c>
       <c r="D3" s="1">
         <f>C3*B3</f>
-        <v>23.97</v>
-      </c>
-      <c r="E3" t="s">
+        <v>15.98</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -457,7 +468,7 @@
         <f t="shared" ref="D4:D5" si="0">C4*B4</f>
         <v>89.699999999999989</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -475,17 +486,23 @@
         <f t="shared" si="0"/>
         <v>89.699999999999989</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <f>SUM(D2:D5)</f>
-        <v>363.17</v>
+        <v>355.18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E950B4B7-51CD-44E0-A0D0-4D7D29910A21}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{56211C76-3679-4E9C-828F-1C126A0E4698}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{B5BEF17A-6C58-45AF-85E1-5A9315954897}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{7CF73344-EE84-4F2C-BDD4-BEF4DEFE0C63}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>